--- a/data/output/FV2504_FV2410/PARTIN/37004.xlsx
+++ b/data/output/FV2504_FV2410/PARTIN/37004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="277">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="277">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -941,6 +941,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U139" totalsRowShown="0">
+  <autoFilter ref="A1:U139"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,7 +1260,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8102,5 +8135,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/PARTIN/37004.xlsx
+++ b/data/output/FV2504_FV2410/PARTIN/37004.xlsx
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2978,7 +2978,7 @@
         <v>256</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3194,7 +3194,7 @@
         <v>256</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -4692,7 +4692,7 @@
         <v>260</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5718,7 +5718,7 @@
         <v>263</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6974,7 +6974,7 @@
         <v>260</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7656,52 +7656,52 @@
       </c>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="2"/>
       <c r="F114" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5" t="s">
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K114" s="5"/>
+      <c r="K114" s="2"/>
       <c r="L114" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M114" s="5" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O114" s="5" t="s">
+      <c r="O114" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P114" s="5"/>
+      <c r="P114" s="2"/>
       <c r="Q114" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5" t="s">
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V114" s="5"/>
+      <c r="V114" s="2"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -7954,7 +7954,7 @@
         <v>270</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8636,52 +8636,52 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K132" s="5"/>
+      <c r="K132" s="2"/>
       <c r="L132" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P132" s="5"/>
+      <c r="P132" s="2"/>
       <c r="Q132" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V132" s="5"/>
+      <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -8912,48 +8912,48 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5" t="s">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="2"/>
       <c r="F137" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K137" s="5"/>
+      <c r="K137" s="2"/>
       <c r="L137" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5" t="s">
+      <c r="N137" s="2"/>
+      <c r="O137" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P137" s="5"/>
+      <c r="P137" s="2"/>
       <c r="Q137" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
